--- a/team_specific_matrix/Mississippi St._A.xlsx
+++ b/team_specific_matrix/Mississippi St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2540983606557377</v>
+        <v>0.2430769230769231</v>
       </c>
       <c r="C2">
-        <v>0.4549180327868853</v>
+        <v>0.48</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02049180327868852</v>
+        <v>0.02461538461538462</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.139344262295082</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1311475409836066</v>
+        <v>0.1138461538461538</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008695652173913044</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="C3">
-        <v>0.04347826086956522</v>
+        <v>0.04294478527607362</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02608695652173913</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7304347826086957</v>
+        <v>0.754601226993865</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.191304347826087</v>
+        <v>0.1779141104294479</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5348837209302325</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4186046511627907</v>
+        <v>0.3728813559322034</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1048951048951049</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02797202797202797</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07692307692307693</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2657342657342657</v>
+        <v>0.2625698324022346</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03496503496503497</v>
+        <v>0.0335195530726257</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0979020979020979</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="R6">
-        <v>0.06293706293706294</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="S6">
-        <v>0.3286713286713286</v>
+        <v>0.3240223463687151</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09090909090909091</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006993006993006993</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005405405405405406</v>
       </c>
       <c r="F7">
-        <v>0.03496503496503497</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2097902097902098</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01398601398601399</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1678321678321678</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="R7">
-        <v>0.06293706293706294</v>
+        <v>0.05945945945945946</v>
       </c>
       <c r="S7">
-        <v>0.4125874125874126</v>
+        <v>0.4216216216216216</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09363295880149813</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02247191011235955</v>
+        <v>0.02528089887640449</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0449438202247191</v>
+        <v>0.04775280898876404</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1647940074906367</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1947565543071161</v>
+        <v>0.1769662921348314</v>
       </c>
       <c r="R8">
-        <v>0.1123595505617977</v>
+        <v>0.1095505617977528</v>
       </c>
       <c r="S8">
-        <v>0.3558052434456929</v>
+        <v>0.3764044943820224</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09420289855072464</v>
+        <v>0.09146341463414634</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02173913043478261</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E9">
-        <v>0.007246376811594203</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="F9">
-        <v>0.06521739130434782</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1376811594202899</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02173913043478261</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1521739130434783</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="R9">
-        <v>0.1159420289855072</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="S9">
-        <v>0.3840579710144927</v>
+        <v>0.3597560975609756</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1223628691983122</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03164556962025317</v>
+        <v>0.03066037735849057</v>
       </c>
       <c r="E10">
-        <v>0.002109704641350211</v>
+        <v>0.002358490566037736</v>
       </c>
       <c r="F10">
-        <v>0.06329113924050633</v>
+        <v>0.06210691823899371</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1308016877637131</v>
+        <v>0.130503144654088</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01476793248945148</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2162447257383966</v>
+        <v>0.2106918238993711</v>
       </c>
       <c r="R10">
-        <v>0.06751054852320675</v>
+        <v>0.06918238993710692</v>
       </c>
       <c r="S10">
-        <v>0.3512658227848101</v>
+        <v>0.354559748427673</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1464646464646465</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08080808080808081</v>
+        <v>0.08396946564885496</v>
       </c>
       <c r="K11">
-        <v>0.196969696969697</v>
+        <v>0.1984732824427481</v>
       </c>
       <c r="L11">
-        <v>0.5707070707070707</v>
+        <v>0.5725190839694656</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005050505050505051</v>
+        <v>0.007633587786259542</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7796610169491526</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1779661016949153</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="K12">
-        <v>0.008474576271186441</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="L12">
-        <v>0.02542372881355932</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008474576271186441</v>
+        <v>0.00641025641025641</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02013422818791946</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1476510067114094</v>
+        <v>0.1479591836734694</v>
       </c>
       <c r="I15">
-        <v>0.06711409395973154</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="J15">
-        <v>0.3557046979865772</v>
+        <v>0.4183673469387755</v>
       </c>
       <c r="K15">
-        <v>0.08724832214765101</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02013422818791946</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04026845637583892</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.261744966442953</v>
+        <v>0.2346938775510204</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01418439716312057</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1205673758865248</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="I16">
-        <v>0.09929078014184398</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="J16">
-        <v>0.475177304964539</v>
+        <v>0.4630541871921182</v>
       </c>
       <c r="K16">
-        <v>0.09929078014184398</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03546099290780142</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05673758865248227</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09929078014184398</v>
+        <v>0.09852216748768473</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02229299363057325</v>
+        <v>0.01732673267326733</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1751592356687898</v>
+        <v>0.1658415841584159</v>
       </c>
       <c r="I17">
-        <v>0.09554140127388536</v>
+        <v>0.08663366336633663</v>
       </c>
       <c r="J17">
-        <v>0.4331210191082803</v>
+        <v>0.4554455445544555</v>
       </c>
       <c r="K17">
-        <v>0.08917197452229299</v>
+        <v>0.07673267326732673</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02866242038216561</v>
+        <v>0.02722772277227723</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03821656050955414</v>
+        <v>0.05198019801980198</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1178343949044586</v>
+        <v>0.1188118811881188</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0234375</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.140625</v>
+        <v>0.1301775147928994</v>
       </c>
       <c r="I18">
-        <v>0.078125</v>
+        <v>0.07100591715976332</v>
       </c>
       <c r="J18">
-        <v>0.4765625</v>
+        <v>0.514792899408284</v>
       </c>
       <c r="K18">
-        <v>0.078125</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0234375</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0703125</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.109375</v>
+        <v>0.1005917159763314</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01410105757931845</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1868390129259694</v>
+        <v>0.1871657754010695</v>
       </c>
       <c r="I19">
-        <v>0.09048178613396005</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="J19">
-        <v>0.3889541715628672</v>
+        <v>0.3894830659536542</v>
       </c>
       <c r="K19">
-        <v>0.1022326674500588</v>
+        <v>0.1051693404634581</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02467685076380728</v>
+        <v>0.02584670231729055</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07990599294947121</v>
+        <v>0.0748663101604278</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1128084606345476</v>
+        <v>0.1194295900178253</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mississippi St._A.xlsx
+++ b/team_specific_matrix/Mississippi St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2430769230769231</v>
+        <v>0.2374301675977654</v>
       </c>
       <c r="C2">
-        <v>0.48</v>
+        <v>0.4860335195530726</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02461538461538462</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1384615384615385</v>
+        <v>0.1396648044692737</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1138461538461538</v>
+        <v>0.1145251396648045</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006134969325153374</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="C3">
-        <v>0.04294478527607362</v>
+        <v>0.04419889502762431</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01840490797546012</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.754601226993865</v>
+        <v>0.7458563535911602</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1779141104294479</v>
+        <v>0.1823204419889503</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05084745762711865</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.576271186440678</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3728813559322034</v>
+        <v>0.3650793650793651</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="P5">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1005586592178771</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0335195530726257</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F6">
-        <v>0.0670391061452514</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2625698324022346</v>
+        <v>0.277511961722488</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0335195530726257</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1005586592178771</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="R6">
-        <v>0.0782122905027933</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="S6">
-        <v>0.3240223463687151</v>
+        <v>0.3157894736842105</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1081081081081081</v>
+        <v>0.1004784688995215</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01621621621621622</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="E7">
-        <v>0.005405405405405406</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F7">
-        <v>0.02702702702702703</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1891891891891892</v>
+        <v>0.1770334928229665</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01081081081081081</v>
+        <v>0.009569377990430622</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1621621621621622</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R7">
-        <v>0.05945945945945946</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="S7">
-        <v>0.4216216216216216</v>
+        <v>0.4162679425837321</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09550561797752809</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02528089887640449</v>
+        <v>0.024330900243309</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04775280898876404</v>
+        <v>0.04866180048661801</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1573033707865168</v>
+        <v>0.1581508515815085</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01123595505617977</v>
+        <v>0.0121654501216545</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1769662921348314</v>
+        <v>0.1849148418491484</v>
       </c>
       <c r="R8">
-        <v>0.1095505617977528</v>
+        <v>0.1046228710462287</v>
       </c>
       <c r="S8">
-        <v>0.3764044943820224</v>
+        <v>0.3795620437956204</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09146341463414634</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02439024390243903</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="E9">
-        <v>0.006097560975609756</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="F9">
-        <v>0.06707317073170732</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1402439024390244</v>
+        <v>0.1420765027322404</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02439024390243903</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1707317073170732</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="R9">
-        <v>0.1158536585365854</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="S9">
-        <v>0.3597560975609756</v>
+        <v>0.3715846994535519</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1257861635220126</v>
+        <v>0.1267705382436261</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03066037735849057</v>
+        <v>0.028328611898017</v>
       </c>
       <c r="E10">
-        <v>0.002358490566037736</v>
+        <v>0.002124645892351275</v>
       </c>
       <c r="F10">
-        <v>0.06210691823899371</v>
+        <v>0.06515580736543909</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.130503144654088</v>
+        <v>0.1303116147308782</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01415094339622642</v>
+        <v>0.01345609065155807</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2106918238993711</v>
+        <v>0.2124645892351275</v>
       </c>
       <c r="R10">
-        <v>0.06918238993710692</v>
+        <v>0.07082152974504249</v>
       </c>
       <c r="S10">
-        <v>0.354559748427673</v>
+        <v>0.3505665722379603</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1374045801526718</v>
+        <v>0.1301369863013699</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08396946564885496</v>
+        <v>0.08561643835616438</v>
       </c>
       <c r="K11">
-        <v>0.1984732824427481</v>
+        <v>0.1952054794520548</v>
       </c>
       <c r="L11">
-        <v>0.5725190839694656</v>
+        <v>0.5787671232876712</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007633587786259542</v>
+        <v>0.01027397260273973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7884615384615384</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1730769230769231</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="K12">
-        <v>0.00641025641025641</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="L12">
-        <v>0.02564102564102564</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.00641025641025641</v>
+        <v>0.005714285714285714</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6326530612244898</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3265306122448979</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01530612244897959</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1479591836734694</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I15">
-        <v>0.05612244897959184</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J15">
-        <v>0.4183673469387755</v>
+        <v>0.4072398190045249</v>
       </c>
       <c r="K15">
-        <v>0.07653061224489796</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01530612244897959</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03571428571428571</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2346938775510204</v>
+        <v>0.2262443438914027</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01477832512315271</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1477832512315271</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="I16">
-        <v>0.07881773399014778</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="J16">
-        <v>0.4630541871921182</v>
+        <v>0.4573991031390134</v>
       </c>
       <c r="K16">
-        <v>0.1083743842364532</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02463054187192118</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06403940886699508</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09852216748768473</v>
+        <v>0.09865470852017937</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01732673267326733</v>
+        <v>0.01758241758241758</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1658415841584159</v>
+        <v>0.167032967032967</v>
       </c>
       <c r="I17">
-        <v>0.08663366336633663</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J17">
-        <v>0.4554455445544555</v>
+        <v>0.4483516483516484</v>
       </c>
       <c r="K17">
-        <v>0.07673267326732673</v>
+        <v>0.07472527472527472</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02722772277227723</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05198019801980198</v>
+        <v>0.05934065934065934</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1188118811881188</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01775147928994083</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1301775147928994</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="I18">
-        <v>0.07100591715976332</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J18">
-        <v>0.514792899408284</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K18">
-        <v>0.09467455621301775</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01775147928994083</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05325443786982249</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1005917159763314</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01515151515151515</v>
+        <v>0.016</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1871657754010695</v>
+        <v>0.1936</v>
       </c>
       <c r="I19">
-        <v>0.08288770053475936</v>
+        <v>0.0824</v>
       </c>
       <c r="J19">
-        <v>0.3894830659536542</v>
+        <v>0.3872</v>
       </c>
       <c r="K19">
-        <v>0.1051693404634581</v>
+        <v>0.1032</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02584670231729055</v>
+        <v>0.0256</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0748663101604278</v>
+        <v>0.07439999999999999</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1194295900178253</v>
+        <v>0.1176</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Mississippi St._A.xlsx
+++ b/team_specific_matrix/Mississippi St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2374301675977654</v>
+        <v>0.2375690607734807</v>
       </c>
       <c r="C2">
-        <v>0.4860335195530726</v>
+        <v>0.4861878453038674</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0223463687150838</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1396648044692737</v>
+        <v>0.138121546961326</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1145251396648045</v>
+        <v>0.1160220994475138</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005524861878453038</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="C3">
-        <v>0.04419889502762431</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02209944751381215</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7458563535911602</v>
+        <v>0.7431693989071039</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1823204419889503</v>
+        <v>0.185792349726776</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04761904761904762</v>
+        <v>0.046875</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5873015873015873</v>
+        <v>0.59375</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3650793650793651</v>
+        <v>0.359375</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1004784688995215</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02870813397129187</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E6">
-        <v>0.004784688995215311</v>
+        <v>0.004629629629629629</v>
       </c>
       <c r="F6">
-        <v>0.06698564593301436</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.277511961722488</v>
+        <v>0.2731481481481481</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03349282296650718</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09569377990430622</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="R6">
-        <v>0.07655502392344497</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S6">
-        <v>0.3157894736842105</v>
+        <v>0.3194444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1004784688995215</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01913875598086124</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E7">
-        <v>0.004784688995215311</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="F7">
-        <v>0.02870813397129187</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1770334928229665</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009569377990430622</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1578947368421053</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="R7">
-        <v>0.0861244019138756</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="S7">
-        <v>0.4162679425837321</v>
+        <v>0.426605504587156</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08759124087591241</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.024330900243309</v>
+        <v>0.0259433962264151</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04866180048661801</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1581508515815085</v>
+        <v>0.1580188679245283</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0121654501216545</v>
+        <v>0.01179245283018868</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1849148418491484</v>
+        <v>0.1863207547169811</v>
       </c>
       <c r="R8">
-        <v>0.1046228710462287</v>
+        <v>0.1061320754716981</v>
       </c>
       <c r="S8">
-        <v>0.3795620437956204</v>
+        <v>0.3797169811320755</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09289617486338798</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0273224043715847</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="E9">
-        <v>0.00546448087431694</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="F9">
-        <v>0.06557377049180328</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1420765027322404</v>
+        <v>0.1413612565445026</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02185792349726776</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1693989071038251</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="R9">
-        <v>0.1038251366120219</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="S9">
-        <v>0.3715846994535519</v>
+        <v>0.3717277486910995</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1267705382436261</v>
+        <v>0.1254307374224673</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.028328611898017</v>
+        <v>0.02756719503790489</v>
       </c>
       <c r="E10">
-        <v>0.002124645892351275</v>
+        <v>0.002067539627842867</v>
       </c>
       <c r="F10">
-        <v>0.06515580736543909</v>
+        <v>0.06547208821502412</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1303116147308782</v>
+        <v>0.129565816678153</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01345609065155807</v>
+        <v>0.01309441764300482</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2124645892351275</v>
+        <v>0.2143349414197105</v>
       </c>
       <c r="R10">
-        <v>0.07082152974504249</v>
+        <v>0.07236388697450034</v>
       </c>
       <c r="S10">
-        <v>0.3505665722379603</v>
+        <v>0.3501033769813922</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1301369863013699</v>
+        <v>0.1295681063122923</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08561643835616438</v>
+        <v>0.08305647840531562</v>
       </c>
       <c r="K11">
-        <v>0.1952054794520548</v>
+        <v>0.1926910299003322</v>
       </c>
       <c r="L11">
-        <v>0.5787671232876712</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01027397260273973</v>
+        <v>0.0132890365448505</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.7955801104972375</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1657142857142857</v>
+        <v>0.1712707182320442</v>
       </c>
       <c r="K12">
-        <v>0.005714285714285714</v>
+        <v>0.005524861878453038</v>
       </c>
       <c r="L12">
-        <v>0.02285714285714286</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.005714285714285714</v>
+        <v>0.005524861878453038</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6607142857142857</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3035714285714285</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01809954751131222</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1538461538461539</v>
+        <v>0.1585903083700441</v>
       </c>
       <c r="I15">
-        <v>0.05882352941176471</v>
+        <v>0.05726872246696035</v>
       </c>
       <c r="J15">
-        <v>0.4072398190045249</v>
+        <v>0.4096916299559472</v>
       </c>
       <c r="K15">
-        <v>0.08144796380090498</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01357466063348416</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04072398190045249</v>
+        <v>0.03964757709251102</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2262443438914027</v>
+        <v>0.2246696035242291</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01345291479820628</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1569506726457399</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="I16">
-        <v>0.07174887892376682</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="J16">
-        <v>0.4573991031390134</v>
+        <v>0.4622222222222222</v>
       </c>
       <c r="K16">
-        <v>0.1031390134529148</v>
+        <v>0.1022222222222222</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02690582959641256</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07174887892376682</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09865470852017937</v>
+        <v>0.09777777777777778</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01758241758241758</v>
+        <v>0.01691331923890063</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.167032967032967</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="I17">
-        <v>0.08791208791208792</v>
+        <v>0.08879492600422834</v>
       </c>
       <c r="J17">
-        <v>0.4483516483516484</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="K17">
-        <v>0.07472527472527472</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03076923076923077</v>
+        <v>0.03382663847780127</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05934065934065934</v>
+        <v>0.0613107822410148</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1142857142857143</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01538461538461539</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1384615384615385</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="I18">
-        <v>0.07692307692307693</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="J18">
-        <v>0.4871794871794872</v>
+        <v>0.4803921568627451</v>
       </c>
       <c r="K18">
-        <v>0.1128205128205128</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01538461538461539</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05128205128205128</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1025641025641026</v>
+        <v>0.1029411764705882</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.016</v>
+        <v>0.01549186676994578</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1936</v>
+        <v>0.1944229279628195</v>
       </c>
       <c r="I19">
-        <v>0.0824</v>
+        <v>0.08365608055770721</v>
       </c>
       <c r="J19">
-        <v>0.3872</v>
+        <v>0.3865220759101472</v>
       </c>
       <c r="K19">
-        <v>0.1032</v>
+        <v>0.1037955073586367</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0256</v>
+        <v>0.02633617350890782</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07439999999999999</v>
+        <v>0.07281177381874517</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1176</v>
+        <v>0.1169635941130906</v>
       </c>
     </row>
   </sheetData>
